--- a/king_index/output/pe/new_energy_vehicle_pe_original_data.xlsx
+++ b/king_index/output/pe/new_energy_vehicle_pe_original_data.xlsx
@@ -1014,10 +1014,10 @@
         <v>18.14429748293361</v>
       </c>
       <c r="E4" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="F4" t="n">
-        <v>19.54532020068397</v>
+        <v>19.56020479652813</v>
       </c>
       <c r="G4" t="n">
         <v>0.008915242217721605</v>
@@ -1289,13 +1289,13 @@
         <v>91.92516740242793</v>
       </c>
       <c r="D6" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E6" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F6" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G6" t="n">
         <v>1.018939127126111</v>
@@ -1423,13 +1423,13 @@
         <v>96.96612466045924</v>
       </c>
       <c r="D7" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E7" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F7" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G7" t="n">
         <v>1.076001537018062</v>
@@ -1557,13 +1557,13 @@
         <v>97.0349054214248</v>
       </c>
       <c r="D8" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E8" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F8" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G8" t="n">
         <v>1.04576527996237</v>
@@ -1691,13 +1691,13 @@
         <v>95.77449082355031</v>
       </c>
       <c r="D9" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E9" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F9" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G9" t="n">
         <v>1.013937641026762</v>
@@ -1825,13 +1825,13 @@
         <v>93.81732627440137</v>
       </c>
       <c r="D10" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E10" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F10" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G10" t="n">
         <v>1.006890092395754</v>
@@ -1959,13 +1959,13 @@
         <v>91.91113172933989</v>
       </c>
       <c r="D11" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E11" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F11" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G11" t="n">
         <v>0.9693789465169113</v>
@@ -2093,13 +2093,13 @@
         <v>90.50304418869943</v>
       </c>
       <c r="D12" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E12" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F12" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G12" t="n">
         <v>0.9139079185940286</v>
@@ -2227,13 +2227,13 @@
         <v>86.95913692215392</v>
       </c>
       <c r="D13" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E13" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F13" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G13" t="n">
         <v>0.865939119864745</v>
@@ -2361,13 +2361,13 @@
         <v>87.3163603142597</v>
       </c>
       <c r="D14" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E14" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F14" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G14" t="n">
         <v>0.8645750781769721</v>
@@ -2495,13 +2495,13 @@
         <v>90.03489981519111</v>
       </c>
       <c r="D15" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E15" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F15" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G15" t="n">
         <v>0.9145899394379151</v>
@@ -2629,13 +2629,13 @@
         <v>92.48397014937359</v>
       </c>
       <c r="D16" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E16" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F16" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G16" t="n">
         <v>0.9532377867232357</v>
@@ -2763,13 +2763,13 @@
         <v>96.70029533907088</v>
       </c>
       <c r="D17" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E17" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F17" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G17" t="n">
         <v>0.9616493770420167</v>
@@ -2897,13 +2897,13 @@
         <v>97.43737855319203</v>
       </c>
       <c r="D18" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E18" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F18" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G18" t="n">
         <v>0.9602853353542437</v>
@@ -3031,13 +3031,13 @@
         <v>101.9015152052418</v>
       </c>
       <c r="D19" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E19" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F19" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G19" t="n">
         <v>1.043037196675977</v>
@@ -3165,13 +3165,13 @@
         <v>102.2789994386049</v>
       </c>
       <c r="D20" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E20" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F20" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G20" t="n">
         <v>1.053267509155969</v>
@@ -3299,13 +3299,13 @@
         <v>98.87810480127065</v>
       </c>
       <c r="D21" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E21" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F21" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G21" t="n">
         <v>1.031670182700354</v>
@@ -3433,13 +3433,13 @@
         <v>98.5491061952952</v>
       </c>
       <c r="D22" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E22" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F22" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G22" t="n">
         <v>0.9527831061606447</v>
@@ -3567,13 +3567,13 @@
         <v>99.08802667251919</v>
       </c>
       <c r="D23" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E23" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F23" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G23" t="n">
         <v>0.951191724191576</v>
@@ -3701,13 +3701,13 @@
         <v>95.80054511293635</v>
       </c>
       <c r="D24" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E24" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F24" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G24" t="n">
         <v>0.9423254533993564</v>
@@ -3835,13 +3835,13 @@
         <v>95.87432694578132</v>
       </c>
       <c r="D25" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E25" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F25" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G25" t="n">
         <v>0.9220921686315141</v>
@@ -3969,13 +3969,13 @@
         <v>96.20621973713723</v>
       </c>
       <c r="D26" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E26" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F26" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G26" t="n">
         <v>0.904814307431361</v>
@@ -4103,13 +4103,13 @@
         <v>99.30658997493225</v>
       </c>
       <c r="D27" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E27" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F27" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G27" t="n">
         <v>0.8989034602068305</v>
@@ -4237,13 +4237,13 @@
         <v>102.3907499382049</v>
       </c>
       <c r="D28" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E28" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F28" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G28" t="n">
         <v>0.9177727032868996</v>
@@ -4371,13 +4371,13 @@
         <v>108.3827185373455</v>
       </c>
       <c r="D29" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E29" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F29" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G29" t="n">
         <v>0.983246703497632</v>
@@ -4505,13 +4505,13 @@
         <v>113.8016228534302</v>
       </c>
       <c r="D30" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E30" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F30" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G30" t="n">
         <v>0.9927949951337381</v>
@@ -4639,13 +4639,13 @@
         <v>114.3760698040998</v>
       </c>
       <c r="D31" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E31" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F31" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G31" t="n">
         <v>1.038035710487476</v>
@@ -4773,13 +4773,13 @@
         <v>115.1272011425484</v>
       </c>
       <c r="D32" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E32" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F32" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G32" t="n">
         <v>1.177622641419864</v>
@@ -4907,13 +4907,13 @@
         <v>115.2233363058681</v>
       </c>
       <c r="D33" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E33" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F33" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G33" t="n">
         <v>1.175121898325614</v>
@@ -5041,13 +5041,13 @@
         <v>111.3653145384362</v>
       </c>
       <c r="D34" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E34" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F34" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G34" t="n">
         <v>1.134427988508634</v>
@@ -5175,13 +5175,13 @@
         <v>111.5345167131655</v>
       </c>
       <c r="D35" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E35" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F35" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G35" t="n">
         <v>1.134655328789929</v>
@@ -5309,13 +5309,13 @@
         <v>118.0458587549726</v>
       </c>
       <c r="D36" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E36" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F36" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G36" t="n">
         <v>1.136701391321589</v>
@@ -5443,13 +5443,13 @@
         <v>114.6520712718215</v>
       </c>
       <c r="D37" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E37" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F37" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G37" t="n">
         <v>1.136701391321589</v>
@@ -5577,13 +5577,13 @@
         <v>116.6089241705178</v>
       </c>
       <c r="D38" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E38" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F38" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G38" t="n">
         <v>0.986743405654889</v>
@@ -5711,13 +5711,13 @@
         <v>113.1434644902689</v>
       </c>
       <c r="D39" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E39" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F39" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G39" t="n">
         <v>0.9636755568004822</v>
@@ -5845,13 +5845,13 @@
         <v>115.33872003135</v>
       </c>
       <c r="D40" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E40" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F40" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G40" t="n">
         <v>0.9901928036260913</v>
@@ -5979,13 +5979,13 @@
         <v>116.2732790118565</v>
       </c>
       <c r="D41" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E41" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F41" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G41" t="n">
         <v>1.000540997539698</v>
@@ -6113,13 +6113,13 @@
         <v>119.1471984523217</v>
       </c>
       <c r="D42" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E42" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F42" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G42" t="n">
         <v>1.002481283931931</v>
@@ -6247,13 +6247,13 @@
         <v>119.3875534901295</v>
       </c>
       <c r="D43" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E43" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F43" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G43" t="n">
         <v>0.9986007112366171</v>
@@ -6381,13 +6381,13 @@
         <v>97.88229333582305</v>
       </c>
       <c r="D44" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E44" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F44" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G44" t="n">
         <v>0.9410388826701876</v>
@@ -6515,13 +6515,13 @@
         <v>100.5368800064788</v>
       </c>
       <c r="D45" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E45" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F45" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G45" t="n">
         <v>0.9589326345677911</v>
@@ -6649,13 +6649,13 @@
         <v>99.19123333854461</v>
       </c>
       <c r="D46" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E46" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F46" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G46" t="n">
         <v>0.9917019152942126</v>
@@ -6783,13 +6783,13 @@
         <v>100.0578232913719</v>
       </c>
       <c r="D47" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E47" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F47" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G47" t="n">
         <v>0.9927798521490692</v>
@@ -6917,13 +6917,13 @@
         <v>106.6888030562353</v>
       </c>
       <c r="D48" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E48" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F48" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G48" t="n">
         <v>1.066941908440765</v>
@@ -7051,13 +7051,13 @@
         <v>106.449040989542</v>
       </c>
       <c r="D49" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E49" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F49" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G49" t="n">
         <v>1.017572399989077</v>
@@ -7185,13 +7185,13 @@
         <v>107.4792400812259</v>
       </c>
       <c r="D50" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E50" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F50" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G50" t="n">
         <v>1.038053200409658</v>
@@ -7319,13 +7319,13 @@
         <v>105.8375075797151</v>
       </c>
       <c r="D51" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E51" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F51" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G51" t="n">
         <v>0.9563455861339656</v>
@@ -7453,13 +7453,13 @@
         <v>100.2587761544011</v>
       </c>
       <c r="D52" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E52" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F52" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G52" t="n">
         <v>0.9390985962779542</v>
@@ -7587,13 +7587,13 @@
         <v>102.1646093233793</v>
       </c>
       <c r="D53" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E53" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F53" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G53" t="n">
         <v>0.9464285669444709</v>
@@ -7721,13 +7721,13 @@
         <v>104.2180590441874</v>
       </c>
       <c r="D54" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E54" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F54" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G54" t="n">
         <v>0.9830784203662069</v>
@@ -7855,13 +7855,13 @@
         <v>103.5237484449581</v>
       </c>
       <c r="D55" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E55" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F55" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G55" t="n">
         <v>0.9809225466564936</v>
@@ -7989,13 +7989,13 @@
         <v>101.1506160092885</v>
       </c>
       <c r="D56" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E56" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F56" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G56" t="n">
         <v>0.9442726932347576</v>
@@ -8123,13 +8123,13 @@
         <v>98.9315221931579</v>
       </c>
       <c r="D57" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E57" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F57" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G57" t="n">
         <v>0.9061137282340528</v>
@@ -8257,13 +8257,13 @@
         <v>98.48467475396271</v>
       </c>
       <c r="D58" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E58" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F58" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G58" t="n">
         <v>0.9076228398130216</v>
@@ -8391,13 +8391,13 @@
         <v>102.8824375260666</v>
       </c>
       <c r="D59" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E59" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F59" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G59" t="n">
         <v>0.9274568781028585</v>
@@ -8525,13 +8525,13 @@
         <v>105.2419628717821</v>
       </c>
       <c r="D60" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E60" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F60" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G60" t="n">
         <v>0.9227139559593197</v>
@@ -8659,13 +8659,13 @@
         <v>106.1337025103299</v>
       </c>
       <c r="D61" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E61" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F61" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G61" t="n">
         <v>0.9378050720164653</v>
@@ -8793,13 +8793,13 @@
         <v>103.681688311524</v>
       </c>
       <c r="D62" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E62" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F62" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G62" t="n">
         <v>0.9671249547716845</v>
@@ -8927,13 +8927,13 @@
         <v>101.7044121284104</v>
       </c>
       <c r="D63" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E63" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F63" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G63" t="n">
         <v>0.9339244993211507</v>
@@ -9061,13 +9061,13 @@
         <v>100.6507319692105</v>
       </c>
       <c r="D64" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E64" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F64" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G64" t="n">
         <v>0.9302595140324686</v>
@@ -9195,13 +9195,13 @@
         <v>99.91425883462468</v>
       </c>
       <c r="D65" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E65" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F65" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G65" t="n">
         <v>0.9464285669444709</v>
@@ -9329,13 +9329,13 @@
         <v>101.2890463655815</v>
       </c>
       <c r="D66" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E66" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F66" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G66" t="n">
         <v>0.9255165917997774</v>
@@ -9463,13 +9463,13 @@
         <v>99.74664300261485</v>
       </c>
       <c r="D67" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E67" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F67" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G67" t="n">
         <v>0.8867108646683282</v>
@@ -9597,13 +9597,13 @@
         <v>100.4758996105406</v>
       </c>
       <c r="D68" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E68" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F68" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G68" t="n">
         <v>0.8761470834372415</v>
@@ -9731,13 +9731,13 @@
         <v>102.248919704386</v>
       </c>
       <c r="D69" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E69" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F69" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G69" t="n">
         <v>0.8858485152201038</v>
@@ -9865,13 +9865,13 @@
         <v>104.880725465947</v>
       </c>
       <c r="D70" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E70" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F70" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G70" t="n">
         <v>0.8910226120877548</v>
@@ -9999,13 +9999,13 @@
         <v>107.2021680899147</v>
       </c>
       <c r="D71" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E71" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F71" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G71" t="n">
         <v>0.9259477665238895</v>
@@ -10133,13 +10133,13 @@
         <v>106.5357790957936</v>
       </c>
       <c r="D72" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E72" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F72" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G72" t="n">
         <v>0.924869829669033</v>
@@ -10267,13 +10267,13 @@
         <v>105.5526220979398</v>
       </c>
       <c r="D73" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E73" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F73" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G73" t="n">
         <v>0.9488000280608165</v>
@@ -10401,13 +10401,13 @@
         <v>104.9525356465696</v>
       </c>
       <c r="D74" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E74" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F74" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G74" t="n">
         <v>0.9763952118304347</v>
@@ -10535,13 +10535,13 @@
         <v>107.494810068813</v>
       </c>
       <c r="D75" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E75" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F75" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G75" t="n">
         <v>0.9815693086980856</v>
@@ -10669,13 +10669,13 @@
         <v>110.7683273580224</v>
       </c>
       <c r="D76" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E76" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F76" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G76" t="n">
         <v>1.03223234132211</v>
@@ -10803,13 +10803,13 @@
         <v>111.5746043623342</v>
       </c>
       <c r="D77" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E77" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F77" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G77" t="n">
         <v>1.027273831771939</v>
@@ -10937,13 +10937,13 @@
         <v>112.1236902952241</v>
       </c>
       <c r="D78" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E78" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F78" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G78" t="n">
         <v>1.099495601671402</v>
@@ -11071,13 +11071,13 @@
         <v>114.7522772991393</v>
       </c>
       <c r="D79" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E79" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F79" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G79" t="n">
         <v>1.103591761773349</v>
@@ -11205,13 +11205,13 @@
         <v>125.2862169634826</v>
       </c>
       <c r="D80" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E80" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F80" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G80" t="n">
         <v>1.182281152891104</v>
@@ -11339,13 +11339,13 @@
         <v>121.0901832434992</v>
       </c>
       <c r="D81" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E81" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F81" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G81" t="n">
         <v>1.154901556528118</v>
@@ -11473,13 +11473,13 @@
         <v>122.5967810134864</v>
       </c>
       <c r="D82" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E82" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F82" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G82" t="n">
         <v>1.146062474282633</v>
@@ -11607,13 +11607,13 @@
         <v>120.8149936813397</v>
       </c>
       <c r="D83" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E83" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F83" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G83" t="n">
         <v>1.182065565484472</v>
@@ -11741,13 +11741,13 @@
         <v>123.4047038772869</v>
       </c>
       <c r="D84" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E84" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F84" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G84" t="n">
         <v>1.25040676268862</v>
@@ -11875,13 +11875,13 @@
         <v>124.5149722866849</v>
       </c>
       <c r="D85" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E85" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F85" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G85" t="n">
         <v>1.298051572154707</v>
@@ -12009,13 +12009,13 @@
         <v>119.620594621875</v>
       </c>
       <c r="D86" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E86" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F86" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G86" t="n">
         <v>1.252131461674221</v>
@@ -12143,13 +12143,13 @@
         <v>127.2420178719875</v>
       </c>
       <c r="D87" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E87" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F87" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G87" t="n">
         <v>1.362512196663541</v>
@@ -12277,13 +12277,13 @@
         <v>131.3187726484405</v>
       </c>
       <c r="D88" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E88" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F88" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G88" t="n">
         <v>1.336641711879524</v>
@@ -12411,13 +12411,13 @@
         <v>145.38681674255</v>
       </c>
       <c r="D89" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E89" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F89" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G89" t="n">
         <v>1.512992182867495</v>
@@ -12545,13 +12545,13 @@
         <v>147.9600071572572</v>
       </c>
       <c r="D90" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E90" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F90" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G90" t="n">
         <v>1.470305883040731</v>
@@ -12679,13 +12679,13 @@
         <v>147.437987998926</v>
       </c>
       <c r="D91" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E91" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F91" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G91" t="n">
         <v>1.383639759125715</v>
@@ -12813,13 +12813,13 @@
         <v>151.2924750394351</v>
       </c>
       <c r="D92" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E92" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F92" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G92" t="n">
         <v>1.427188408489855</v>
@@ -12947,13 +12947,13 @@
         <v>149.0851957758984</v>
       </c>
       <c r="D93" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E93" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F93" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G93" t="n">
         <v>1.233159772921762</v>
@@ -13081,13 +13081,13 @@
         <v>144.064789412259</v>
       </c>
       <c r="D94" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E94" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F94" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G94" t="n">
         <v>1.295680111038362</v>
@@ -13215,13 +13215,13 @@
         <v>146.4390271788912</v>
       </c>
       <c r="D95" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E95" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F95" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G95" t="n">
         <v>1.347421080517244</v>
@@ -13349,13 +13349,13 @@
         <v>143.1235463247158</v>
       </c>
       <c r="D96" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E96" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F96" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G96" t="n">
         <v>1.310555639778028</v>
@@ -13483,13 +13483,13 @@
         <v>137.4989672020041</v>
       </c>
       <c r="D97" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E97" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F97" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G97" t="n">
         <v>1.31098681450214</v>
@@ -13617,13 +13617,13 @@
         <v>140.9639556353452</v>
       </c>
       <c r="D98" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E98" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F98" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G98" t="n">
         <v>1.359278386009819</v>
@@ -13751,13 +13751,13 @@
         <v>141.20693191028</v>
       </c>
       <c r="D99" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E99" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F99" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G99" t="n">
         <v>1.442279524547001</v>
@@ -13885,13 +13885,13 @@
         <v>136.3021999354245</v>
       </c>
       <c r="D100" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E100" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F100" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G100" t="n">
         <v>1.391616491922976</v>
@@ -14019,13 +14019,13 @@
         <v>143.5274041344108</v>
       </c>
       <c r="D101" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E101" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F101" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G101" t="n">
         <v>1.478282615837992</v>
@@ -14153,13 +14153,13 @@
         <v>147.2731126835583</v>
       </c>
       <c r="D102" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E102" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F102" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G102" t="n">
         <v>1.500272527926695</v>
@@ -14287,13 +14287,13 @@
         <v>152.1870072352415</v>
       </c>
       <c r="D103" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E103" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F103" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G103" t="n">
         <v>1.445082160476611</v>
@@ -14421,13 +14421,13 @@
         <v>153.3085771713193</v>
       </c>
       <c r="D104" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E104" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F104" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G104" t="n">
         <v>1.530454760130139</v>
@@ -14555,13 +14555,13 @@
         <v>149.0376136103147</v>
       </c>
       <c r="D105" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E105" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F105" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G105" t="n">
         <v>1.523987138911846</v>
@@ -14689,13 +14689,13 @@
         <v>151.5034084660224</v>
       </c>
       <c r="D106" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E106" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F106" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G106" t="n">
         <v>1.504153100622009</v>
@@ -14823,13 +14823,13 @@
         <v>146.2450677897436</v>
       </c>
       <c r="D107" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E107" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F107" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G107" t="n">
         <v>1.549642036289231</v>
@@ -14957,13 +14957,13 @@
         <v>143.8592039719479</v>
       </c>
       <c r="D108" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E108" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F108" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G108" t="n">
         <v>1.517735105100186</v>
@@ -15091,13 +15091,13 @@
         <v>143.1767293841434</v>
       </c>
       <c r="D109" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E109" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F109" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G109" t="n">
         <v>1.568398137724211</v>
@@ -15225,13 +15225,13 @@
         <v>151.767272080595</v>
       </c>
       <c r="D110" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E110" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F110" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G110" t="n">
         <v>1.724698983104865</v>
@@ -15359,13 +15359,13 @@
         <v>152.7439775641809</v>
       </c>
       <c r="D111" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E111" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F111" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G111" t="n">
         <v>1.713919614467146</v>
@@ -15493,13 +15493,13 @@
         <v>151.933181079345</v>
       </c>
       <c r="D112" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E112" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F112" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G112" t="n">
         <v>1.694301163494789</v>
@@ -15627,13 +15627,13 @@
         <v>146.008225874784</v>
       </c>
       <c r="D113" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E113" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F113" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G113" t="n">
         <v>1.476989091665656</v>
@@ -15761,13 +15761,13 @@
         <v>151.5076913303728</v>
       </c>
       <c r="D114" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E114" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F114" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G114" t="n">
         <v>1.478067028520512</v>
@@ -15895,13 +15895,13 @@
         <v>155.5966488357203</v>
       </c>
       <c r="D115" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E115" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F115" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G115" t="n">
         <v>1.525711837897447</v>
@@ -16029,13 +16029,13 @@
         <v>157.8699434628986</v>
       </c>
       <c r="D116" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E116" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F116" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G116" t="n">
         <v>1.466209722938784</v>
@@ -16163,13 +16163,13 @@
         <v>153.2711049954482</v>
       </c>
       <c r="D117" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E117" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F117" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G117" t="n">
         <v>1.467934421924386</v>
@@ -16297,13 +16297,13 @@
         <v>150.0791990208093</v>
       </c>
       <c r="D118" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E118" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F118" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G118" t="n">
         <v>1.461251213388613</v>
@@ -16431,13 +16431,13 @@
         <v>144.7581528182052</v>
       </c>
       <c r="D119" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E119" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F119" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G119" t="n">
         <v>1.528083299013793</v>
@@ -16565,13 +16565,13 @@
         <v>141.8063977966208</v>
       </c>
       <c r="D120" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E120" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F120" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G120" t="n">
         <v>1.422229898939684</v>
@@ -16699,13 +16699,13 @@
         <v>132.2785714890745</v>
       </c>
       <c r="D121" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E121" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F121" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G121" t="n">
         <v>1.176325217453124</v>
@@ -16833,13 +16833,13 @@
         <v>129.6530458894954</v>
       </c>
       <c r="D122" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E122" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F122" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G122" t="n">
         <v>1.086658737862861</v>
@@ -16967,13 +16967,13 @@
         <v>121.6131837021896</v>
       </c>
       <c r="D123" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E123" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F123" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G123" t="n">
         <v>1.059054407678794</v>
@@ -17101,13 +17101,13 @@
         <v>129.3788677913961</v>
       </c>
       <c r="D124" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E124" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F124" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G124" t="n">
         <v>1.128350795256507</v>
@@ -17235,13 +17235,13 @@
         <v>130.2259877327384</v>
       </c>
       <c r="D125" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E125" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F125" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G125" t="n">
         <v>1.136536906974873</v>
@@ -17369,13 +17369,13 @@
         <v>130.4592027836098</v>
       </c>
       <c r="D126" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E126" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F126" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G126" t="n">
         <v>1.16433161190397</v>
@@ -17503,13 +17503,13 @@
         <v>122.3596729101371</v>
       </c>
       <c r="D127" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E127" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F127" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G127" t="n">
         <v>1.048774174300004</v>
@@ -17637,13 +17637,13 @@
         <v>121.1678756665946</v>
       </c>
       <c r="D128" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E128" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F128" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G128" t="n">
         <v>1.115595690905534</v>
@@ -17771,13 +17771,13 @@
         <v>113.8439167945766</v>
       </c>
       <c r="D129" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E129" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F129" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G129" t="n">
         <v>1.122068430453536</v>
@@ -17905,13 +17905,13 @@
         <v>111.5608699389206</v>
       </c>
       <c r="D130" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E130" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F130" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G130" t="n">
         <v>1.106076956417714</v>
@@ -18039,13 +18039,13 @@
         <v>115.9556466047994</v>
       </c>
       <c r="D131" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E131" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F131" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G131" t="n">
         <v>1.079424499602193</v>
@@ -18173,13 +18173,13 @@
         <v>120.0451436223885</v>
       </c>
       <c r="D132" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E132" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F132" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G132" t="n">
         <v>1.100936839728319</v>
@@ -18307,13 +18307,13 @@
         <v>121.2729185813067</v>
       </c>
       <c r="D133" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E133" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F133" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G133" t="n">
         <v>1.089514358235953</v>
@@ -18441,13 +18441,13 @@
         <v>114.8614775190601</v>
       </c>
       <c r="D134" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E134" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F134" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G134" t="n">
         <v>1.068573142166614</v>
@@ -18575,13 +18575,13 @@
         <v>116.6459759740607</v>
       </c>
       <c r="D135" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E135" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F135" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G135" t="n">
         <v>1.094654474925348</v>
@@ -18709,13 +18709,13 @@
         <v>119.3785935847208</v>
       </c>
       <c r="D136" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E136" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F136" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G136" t="n">
         <v>1.091418105151347</v>
@@ -18843,13 +18843,13 @@
         <v>119.8998232718107</v>
       </c>
       <c r="D137" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E137" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F137" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G137" t="n">
         <v>1.111788197163898</v>
@@ -18977,13 +18977,13 @@
         <v>114.665183098797</v>
       </c>
       <c r="D138" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E138" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F138" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G138" t="n">
         <v>1.028404082376605</v>
@@ -19111,13 +19111,13 @@
         <v>114.2657907157188</v>
       </c>
       <c r="D139" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E139" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F139" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G139" t="n">
         <v>1.056769911362491</v>
@@ -19245,13 +19245,13 @@
         <v>111.1258660065384</v>
       </c>
       <c r="D140" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E140" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F140" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G140" t="n">
         <v>1.071428762539706</v>
@@ -19379,13 +19379,13 @@
         <v>106.3094404463842</v>
       </c>
       <c r="D141" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E141" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F141" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G141" t="n">
         <v>1.008985863821752</v>
@@ -19513,13 +19513,13 @@
         <v>107.1045745767857</v>
       </c>
       <c r="D142" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E142" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F142" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G142" t="n">
         <v>1.006701367505448</v>
@@ -19647,13 +19647,13 @@
         <v>113.893557033707</v>
       </c>
       <c r="D143" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E143" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F143" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G143" t="n">
         <v>1.086849112607892</v>
@@ -19781,13 +19781,13 @@
         <v>112.9381131223385</v>
       </c>
       <c r="D144" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E144" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F144" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G144" t="n">
         <v>1.016791226139208</v>
@@ -19915,13 +19915,13 @@
         <v>105.43811839991</v>
       </c>
       <c r="D145" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E145" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F145" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G145" t="n">
         <v>0.9895676453560509</v>
@@ -20049,13 +20049,13 @@
         <v>104.8858636270213</v>
       </c>
       <c r="D146" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E146" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F146" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G146" t="n">
         <v>0.988511670041416</v>
@@ -20183,13 +20183,13 @@
         <v>107.2591533736082</v>
       </c>
       <c r="D147" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E147" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F147" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G147" t="n">
         <v>1.011831988213748</v>
@@ -20317,13 +20317,13 @@
         <v>109.04304244656</v>
       </c>
       <c r="D148" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E148" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F148" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G148" t="n">
         <v>1.036501415756357</v>
@@ -20451,13 +20451,13 @@
         <v>109.5562887798154</v>
       </c>
       <c r="D149" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E149" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F149" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G149" t="n">
         <v>1.028214030006733</v>
@@ -20585,13 +20585,13 @@
         <v>111.4739430437911</v>
       </c>
       <c r="D150" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E150" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F150" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G150" t="n">
         <v>1.013373827468593</v>
@@ -20719,13 +20719,13 @@
         <v>111.0330443782946</v>
       </c>
       <c r="D151" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E151" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F151" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G151" t="n">
         <v>1.017999345143976</v>
@@ -20853,13 +20853,13 @@
         <v>108.6396750119397</v>
       </c>
       <c r="D152" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E152" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F152" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G152" t="n">
         <v>1.015879316235428</v>
@@ -20987,13 +20987,13 @@
         <v>106.5501448934995</v>
       </c>
       <c r="D153" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E153" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F153" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G153" t="n">
         <v>0.9827297729694751</v>
@@ -21121,13 +21121,13 @@
         <v>108.2348922861711</v>
       </c>
       <c r="D154" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E154" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F154" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G154" t="n">
         <v>0.962685863102249</v>
@@ -21255,13 +21255,13 @@
         <v>114.08975883767</v>
       </c>
       <c r="D155" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E155" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F155" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G155" t="n">
         <v>1.086996650238134</v>
@@ -21389,13 +21389,13 @@
         <v>111.6101704818721</v>
       </c>
       <c r="D156" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E156" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F156" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G156" t="n">
         <v>1.114749756201281</v>
@@ -21523,13 +21523,13 @@
         <v>116.1569286272934</v>
       </c>
       <c r="D157" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E157" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F157" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G157" t="n">
         <v>1.105113261081379</v>
@@ -21657,13 +21657,13 @@
         <v>124.8370805718303</v>
       </c>
       <c r="D158" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E158" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F158" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G158" t="n">
         <v>1.16601591031048</v>
@@ -21791,13 +21791,13 @@
         <v>121.2083753358911</v>
       </c>
       <c r="D159" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E159" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F159" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G159" t="n">
         <v>1.131324527789682</v>
@@ -21925,13 +21925,13 @@
         <v>120.5842757969225</v>
       </c>
       <c r="D160" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E160" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F160" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G160" t="n">
         <v>1.13460093618394</v>
@@ -22059,13 +22059,13 @@
         <v>121.2661651999398</v>
       </c>
       <c r="D161" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E161" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F161" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G161" t="n">
         <v>1.156379415101426</v>
@@ -22193,13 +22193,13 @@
         <v>122.3870024673173</v>
       </c>
       <c r="D162" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E162" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F162" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G162" t="n">
         <v>1.157921254356271</v>
@@ -22327,13 +22327,13 @@
         <v>118.0982126081392</v>
       </c>
       <c r="D163" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E163" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F163" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G163" t="n">
         <v>1.185096170576564</v>
@@ -22461,13 +22461,13 @@
         <v>115.7733545532045</v>
       </c>
       <c r="D164" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E164" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F164" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G164" t="n">
         <v>1.202634591766107</v>
@@ -22595,13 +22595,13 @@
         <v>107.3449107929207</v>
       </c>
       <c r="D165" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E165" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F165" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G165" t="n">
         <v>0.9185239097981878</v>
@@ -22729,13 +22729,13 @@
         <v>103.1129142497171</v>
       </c>
       <c r="D166" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E166" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F166" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G166" t="n">
         <v>0.8832499040737317</v>
@@ -22863,13 +22863,13 @@
         <v>96.32609136280213</v>
       </c>
       <c r="D167" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E167" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F167" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G167" t="n">
         <v>0.9315416975709421</v>
@@ -22997,13 +22997,13 @@
         <v>94.51904094273831</v>
       </c>
       <c r="D168" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E168" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F168" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G168" t="n">
         <v>0.9560375349167392</v>
@@ -23131,13 +23131,13 @@
         <v>90.94772488844062</v>
       </c>
       <c r="D169" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E169" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F169" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G169" t="n">
         <v>0.9361609126158397</v>
@@ -23265,13 +23265,13 @@
         <v>91.73395451963293</v>
       </c>
       <c r="D170" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E170" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F170" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G170" t="n">
         <v>0.9402202228122134</v>
@@ -23399,13 +23399,13 @@
         <v>90.84809322513051</v>
       </c>
       <c r="D171" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E171" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F171" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G171" t="n">
         <v>0.9488987480534845</v>
@@ -23533,13 +23533,13 @@
         <v>91.11442661959187</v>
       </c>
       <c r="D172" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E172" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F172" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G172" t="n">
         <v>0.9294420544335541</v>
@@ -23667,13 +23667,13 @@
         <v>88.7446123577175</v>
       </c>
       <c r="D173" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E173" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F173" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G173" t="n">
         <v>0.8906686433612481</v>
@@ -23801,13 +23801,13 @@
         <v>91.13032784340133</v>
       </c>
       <c r="D174" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E174" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F174" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G174" t="n">
         <v>0.9347611504945301</v>
@@ -23935,13 +23935,13 @@
         <v>95.21396804320247</v>
       </c>
       <c r="D175" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E175" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F175" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G175" t="n">
         <v>0.9959307555969402</v>
@@ -24069,13 +24069,13 @@
         <v>94.69959018602901</v>
       </c>
       <c r="D176" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E176" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F176" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G176" t="n">
         <v>1.021826354974894</v>
@@ -24203,13 +24203,13 @@
         <v>98.84116130497313</v>
       </c>
       <c r="D177" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E177" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F177" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G177" t="n">
         <v>1.063819218881636</v>
@@ -24337,13 +24337,13 @@
         <v>99.25221618811685</v>
       </c>
       <c r="D178" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E178" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F178" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G178" t="n">
         <v>1.0664787669567</v>
@@ -24471,13 +24471,13 @@
         <v>98.94004010057132</v>
       </c>
       <c r="D179" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E179" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F179" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G179" t="n">
         <v>1.0723577678662</v>
@@ -24605,13 +24605,13 @@
         <v>100.4437686931748</v>
       </c>
       <c r="D180" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E180" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F180" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G180" t="n">
         <v>1.091114580470052</v>
@@ -24739,13 +24739,13 @@
         <v>102.2781685619239</v>
       </c>
       <c r="D181" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E181" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F181" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G181" t="n">
         <v>1.103992391986099</v>
@@ -24873,13 +24873,13 @@
         <v>100.7741791766104</v>
       </c>
       <c r="D182" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E182" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F182" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G182" t="n">
         <v>1.091394532894314</v>
@@ -25007,13 +25007,13 @@
         <v>101.1228124472295</v>
       </c>
       <c r="D183" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E183" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F183" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G183" t="n">
         <v>1.089014937243511</v>
@@ -25141,13 +25141,13 @@
         <v>106.3157588978905</v>
       </c>
       <c r="D184" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E184" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F184" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G184" t="n">
         <v>1.175800189299613</v>
@@ -25275,13 +25275,13 @@
         <v>110.7199884484467</v>
       </c>
       <c r="D185" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E185" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F185" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G185" t="n">
         <v>1.259785917113097</v>
@@ -25409,13 +25409,13 @@
         <v>110.4406314343239</v>
       </c>
       <c r="D186" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E186" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F186" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G186" t="n">
         <v>1.219192815327665</v>
@@ -25543,13 +25543,13 @@
         <v>109.6409535289849</v>
       </c>
       <c r="D187" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E187" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F187" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G187" t="n">
         <v>1.224231958964379</v>
@@ -25677,13 +25677,13 @@
         <v>108.5448158857831</v>
       </c>
       <c r="D188" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E188" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F188" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G188" t="n">
         <v>1.249847606007223</v>
@@ -25811,13 +25811,13 @@
         <v>112.2698862296844</v>
       </c>
       <c r="D189" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E189" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F189" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G189" t="n">
         <v>1.325854689684667</v>
@@ -25945,13 +25945,13 @@
         <v>109.2276133052251</v>
       </c>
       <c r="D190" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E190" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F190" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G190" t="n">
         <v>1.272103823869773</v>
@@ -26079,13 +26079,13 @@
         <v>110.3742917180618</v>
       </c>
       <c r="D191" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E191" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F191" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G191" t="n">
         <v>1.296039756277894</v>
@@ -26213,13 +26213,13 @@
         <v>110.3518658687763</v>
       </c>
       <c r="D192" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E192" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F192" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G192" t="n">
         <v>1.301918757187393</v>
@@ -26347,13 +26347,13 @@
         <v>116.2843760084136</v>
       </c>
       <c r="D193" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E193" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F193" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G193" t="n">
         <v>1.363648267138327</v>
@@ -26481,13 +26481,13 @@
         <v>120.0382966171615</v>
       </c>
       <c r="D194" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E194" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F194" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G194" t="n">
         <v>1.36252845744128</v>
@@ -26615,13 +26615,13 @@
         <v>119.7537268349086</v>
       </c>
       <c r="D195" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E195" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F195" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G195" t="n">
         <v>1.325574737260405</v>
@@ -26749,13 +26749,13 @@
         <v>111.9339347930776</v>
       </c>
       <c r="D196" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E196" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F196" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G196" t="n">
         <v>1.264405132157994</v>
@@ -26883,13 +26883,13 @@
         <v>116.8228537090262</v>
       </c>
       <c r="D197" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E197" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F197" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G197" t="n">
         <v>1.303178543141148</v>
@@ -27017,13 +27017,13 @@
         <v>121.9302951746145</v>
       </c>
       <c r="D198" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E198" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F198" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G198" t="n">
         <v>1.377365936016312</v>
@@ -27151,13 +27151,13 @@
         <v>122.1826315953564</v>
       </c>
       <c r="D199" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E199" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F199" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G199" t="n">
         <v>1.373586578333353</v>
@@ -27285,13 +27285,13 @@
         <v>121.70173447704</v>
       </c>
       <c r="D200" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E200" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F200" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G200" t="n">
         <v>1.416559275680435</v>
@@ -27419,13 +27419,13 @@
         <v>125.5969126409905</v>
       </c>
       <c r="D201" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E201" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F201" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G201" t="n">
         <v>1.452253209996708</v>
@@ -27553,13 +27553,13 @@
         <v>125.0378365509689</v>
       </c>
       <c r="D202" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E202" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F202" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G202" t="n">
         <v>1.444834470709192</v>
@@ -27687,13 +27687,13 @@
         <v>126.9086075897731</v>
       </c>
       <c r="D203" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E203" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F203" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G203" t="n">
         <v>1.448193899800335</v>
@@ -27821,13 +27821,13 @@
         <v>131.5258452653447</v>
       </c>
       <c r="D204" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E204" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F204" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G204" t="n">
         <v>1.555135726581598</v>
@@ -27955,13 +27955,13 @@
         <v>133.3251423095575</v>
       </c>
       <c r="D205" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E205" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F205" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G205" t="n">
         <v>1.630722881578072</v>
@@ -28089,13 +28089,13 @@
         <v>137.2149607086544</v>
       </c>
       <c r="D206" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E206" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F206" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G206" t="n">
         <v>1.651719313576019</v>
@@ -28223,13 +28223,13 @@
         <v>134.3225219848875</v>
       </c>
       <c r="D207" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E207" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F207" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G207" t="n">
         <v>1.694831987179808</v>
@@ -28357,13 +28357,13 @@
         <v>133.516329957912</v>
       </c>
       <c r="D208" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E208" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F208" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G208" t="n">
         <v>1.772098856721854</v>
@@ -28491,13 +28491,13 @@
         <v>136.030608304493</v>
       </c>
       <c r="D209" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E209" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F209" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G209" t="n">
         <v>1.842366915657352</v>
@@ -28625,13 +28625,13 @@
         <v>135.9546560237363</v>
       </c>
       <c r="D210" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E210" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F210" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G210" t="n">
         <v>1.741024137450478</v>
@@ -28759,13 +28759,13 @@
         <v>142.775851879603</v>
       </c>
       <c r="D211" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E211" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F211" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G211" t="n">
         <v>1.809192553159436</v>
@@ -28893,13 +28893,13 @@
         <v>144.8356152292111</v>
       </c>
       <c r="D212" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E212" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F212" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G212" t="n">
         <v>1.962466506468077</v>
@@ -29027,13 +29027,13 @@
         <v>144.6862384045405</v>
       </c>
       <c r="D213" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E213" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F213" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G213" t="n">
         <v>1.952668171529758</v>
@@ -29161,13 +29161,13 @@
         <v>152.1385276028812</v>
       </c>
       <c r="D214" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E214" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F214" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G214" t="n">
         <v>2.264815126543125</v>
@@ -29295,13 +29295,13 @@
         <v>151.9802259965193</v>
       </c>
       <c r="D215" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E215" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F215" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G215" t="n">
         <v>2.225621786879002</v>
@@ -29429,13 +29429,13 @@
         <v>145.7491093385569</v>
       </c>
       <c r="D216" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E216" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F216" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G216" t="n">
         <v>2.029655088647541</v>
@@ -29563,13 +29563,13 @@
         <v>147.8837411627505</v>
       </c>
       <c r="D217" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E217" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F217" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G217" t="n">
         <v>2.179289660351625</v>
@@ -29697,13 +29697,13 @@
         <v>139.2865568250187</v>
       </c>
       <c r="D218" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E218" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F218" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G218" t="n">
         <v>2.078646763249983</v>
@@ -29831,13 +29831,13 @@
         <v>137.2680256808184</v>
       </c>
       <c r="D219" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E219" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F219" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G219" t="n">
         <v>1.946369241939289</v>
@@ -29965,13 +29965,13 @@
         <v>140.0691936875884</v>
       </c>
       <c r="D220" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E220" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F220" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G220" t="n">
         <v>2.016637300874787</v>
@@ -30099,13 +30099,13 @@
         <v>147.5296093206135</v>
       </c>
       <c r="D221" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E221" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F221" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G221" t="n">
         <v>2.196226782153198</v>
@@ -30233,13 +30233,13 @@
         <v>148.5221544889067</v>
       </c>
       <c r="D222" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E222" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F222" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G222" t="n">
         <v>2.208824641334136</v>
@@ -30367,13 +30367,13 @@
         <v>148.3904005251386</v>
       </c>
       <c r="D223" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E223" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F223" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G223" t="n">
         <v>1.958967101120227</v>
@@ -30501,13 +30501,13 @@
         <v>145.3869673966007</v>
       </c>
       <c r="D224" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E224" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F224" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G224" t="n">
         <v>1.992001487361435</v>
@@ -30635,13 +30635,13 @@
         <v>136.0426526803232</v>
       </c>
       <c r="D225" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E225" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F225" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G225" t="n">
         <v>1.898217424698786</v>
@@ -30769,13 +30769,13 @@
         <v>138.8831846140958</v>
       </c>
       <c r="D226" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E226" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F226" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G226" t="n">
         <v>1.892758352381102</v>
@@ -30903,13 +30903,13 @@
         <v>147.8535098298088</v>
       </c>
       <c r="D227" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E227" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F227" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G227" t="n">
         <v>2.014957586329216</v>
@@ -31037,13 +31037,13 @@
         <v>147.2183610469201</v>
       </c>
       <c r="D228" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E228" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F228" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G228" t="n">
         <v>1.871481967958894</v>
@@ -31171,13 +31171,13 @@
         <v>152.5825874503723</v>
       </c>
       <c r="D229" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E229" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F229" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G229" t="n">
         <v>2.052051282766798</v>
@@ -31305,13 +31305,13 @@
         <v>147.0275182822002</v>
       </c>
       <c r="D230" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E230" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F230" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G230" t="n">
         <v>2.011458180981366</v>
@@ -31439,13 +31439,13 @@
         <v>159.5363268538883</v>
       </c>
       <c r="D231" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E231" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F231" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G231" t="n">
         <v>2.321925421449162</v>
@@ -31573,13 +31573,13 @@
         <v>157.9154321382939</v>
       </c>
       <c r="D232" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E232" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F232" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G232" t="n">
         <v>2.281612272087991</v>
@@ -31707,13 +31707,13 @@
         <v>157.4492582837457</v>
       </c>
       <c r="D233" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E233" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F233" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G233" t="n">
         <v>2.280212509966682</v>
@@ -31841,13 +31841,13 @@
         <v>151.6268671226375</v>
       </c>
       <c r="D234" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E234" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F234" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G234" t="n">
         <v>2.210224403455446</v>
@@ -31975,13 +31975,13 @@
         <v>148.2827627176593</v>
       </c>
       <c r="D235" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E235" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F235" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G235" t="n">
         <v>2.10552219615743</v>
@@ -32109,13 +32109,13 @@
         <v>150.342215310814</v>
       </c>
       <c r="D236" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E236" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F236" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G236" t="n">
         <v>2.148914822185481</v>
@@ -32243,13 +32243,13 @@
         <v>150.2783966655979</v>
       </c>
       <c r="D237" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E237" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F237" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G237" t="n">
         <v>2.173830588123094</v>
@@ -32377,13 +32377,13 @@
         <v>148.7587078461223</v>
       </c>
       <c r="D238" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E238" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F238" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G238" t="n">
         <v>2.243818694545178</v>
@@ -32511,13 +32511,13 @@
         <v>141.2734810468705</v>
       </c>
       <c r="D239" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E239" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F239" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G239" t="n">
         <v>2.032594589146868</v>
@@ -32645,13 +32645,13 @@
         <v>138.7341143585479</v>
       </c>
       <c r="D240" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E240" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F240" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G240" t="n">
         <v>2.061849617705116</v>
@@ -32779,13 +32779,13 @@
         <v>140.8668174273087</v>
       </c>
       <c r="D241" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E241" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F241" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G241" t="n">
         <v>2.145135464413369</v>
@@ -32913,13 +32913,13 @@
         <v>145.2220289775526</v>
       </c>
       <c r="D242" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E242" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F242" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G242" t="n">
         <v>2.267614650785744</v>
@@ -33047,13 +33047,13 @@
         <v>142.255437819642</v>
       </c>
       <c r="D243" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E243" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F243" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G243" t="n">
         <v>2.365877952325737</v>
@@ -33181,13 +33181,13 @@
         <v>146.2249743137738</v>
       </c>
       <c r="D244" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E244" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F244" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G244" t="n">
         <v>2.38379490756765</v>
@@ -33315,13 +33315,13 @@
         <v>147.4401444103421</v>
       </c>
       <c r="D245" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E245" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F245" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G245" t="n">
         <v>2.498015497379723</v>
@@ -33449,13 +33449,13 @@
         <v>147.8669383841879</v>
       </c>
       <c r="D246" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E246" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F246" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G246" t="n">
         <v>2.509773499287875</v>
@@ -33583,13 +33583,13 @@
         <v>133.0273936652273</v>
       </c>
       <c r="D247" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E247" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F247" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G247" t="n">
         <v>1.792032093396256</v>
@@ -33717,13 +33717,13 @@
         <v>129.5678465301665</v>
       </c>
       <c r="D248" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E248" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F248" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G248" t="n">
         <v>1.692462972940842</v>
@@ -33845,133 +33845,133 @@
         <v>247</v>
       </c>
       <c r="B249" s="2" t="n">
-        <v>44434</v>
+        <v>44438</v>
       </c>
       <c r="C249" t="n">
-        <v>133.0273936652273</v>
+        <v>135.4510970710862</v>
       </c>
       <c r="D249" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E249" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F249" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G249" t="n">
-        <v>1.792032093396256</v>
+        <v>1.699885591071942</v>
       </c>
       <c r="H249" t="n">
-        <v>1.206648655320241</v>
+        <v>1.265303684032546</v>
       </c>
       <c r="I249" t="n">
-        <v>0.6246329530968266</v>
+        <v>0.4278285423837578</v>
       </c>
       <c r="J249" t="n">
-        <v>42.35199643013476</v>
+        <v>41.07086885957026</v>
       </c>
       <c r="K249" t="n">
-        <v>-0.02378669592708701</v>
+        <v>-0.0268226945223286</v>
       </c>
       <c r="L249" t="n">
-        <v>0.1520666022147849</v>
+        <v>0.04610367011235595</v>
       </c>
       <c r="M249" t="n">
-        <v>2.235308499131088</v>
+        <v>2.187190312172779</v>
       </c>
       <c r="N249" t="n">
-        <v>0.2310742177998693</v>
+        <v>0.2164180581641915</v>
       </c>
       <c r="O249" t="n">
-        <v>0.3349711182928091</v>
+        <v>0.3491323825976512</v>
       </c>
       <c r="P249" t="n">
-        <v>0.5045966646429327</v>
+        <v>0.5227842860309949</v>
       </c>
       <c r="Q249" t="n">
-        <v>1.723731434222203</v>
+        <v>1.579640214992065</v>
       </c>
       <c r="R249" t="n">
-        <v>11.14222535712155</v>
+        <v>8.555855532054183</v>
       </c>
       <c r="S249" t="n">
-        <v>0.05216367895596714</v>
+        <v>0.05527887733600029</v>
       </c>
       <c r="T249" t="n">
-        <v>0.909948347561607</v>
+        <v>0.9017270744579109</v>
       </c>
       <c r="U249" t="n">
-        <v>3.08365074200795</v>
+        <v>3.317535251154265</v>
       </c>
       <c r="V249" t="n">
-        <v>2.971782017533556</v>
+        <v>3.196678492209704</v>
       </c>
       <c r="W249" t="n">
-        <v>0.6225673392613746</v>
+        <v>0.2492445382094148</v>
       </c>
       <c r="X249" t="n">
-        <v>4.133337242419893</v>
+        <v>4.148578161504502</v>
       </c>
       <c r="Y249" t="n">
-        <v>36.18071608058999</v>
+        <v>42.02890257998334</v>
       </c>
       <c r="Z249" t="n">
-        <v>0.2723966873450067</v>
+        <v>0.2510848981518805</v>
       </c>
       <c r="AA249" t="n">
-        <v>3.088366957242056</v>
+        <v>3.06216968826586</v>
       </c>
       <c r="AB249" t="n">
-        <v>1.261134318842959</v>
+        <v>1.302318124229708</v>
       </c>
       <c r="AC249" t="n">
-        <v>1.252300150677323</v>
+        <v>1.416805917576391</v>
       </c>
       <c r="AD249" t="n">
-        <v>0.6252482124740365</v>
+        <v>0.6973113663913429</v>
       </c>
       <c r="AE249" t="n">
-        <v>0.234037791012957</v>
+        <v>0.25339575551732</v>
       </c>
       <c r="AF249" t="n">
-        <v>1.011215324484342</v>
+        <v>1.497517587356535</v>
       </c>
       <c r="AG249" t="n">
-        <v>4.250963346369721</v>
+        <v>3.404451058206868</v>
       </c>
       <c r="AH249" t="n">
-        <v>0.06430535893561051</v>
+        <v>0.06498674022675001</v>
       </c>
       <c r="AI249" t="n">
-        <v>0.06434596788543948</v>
+        <v>0.06534368476545728</v>
       </c>
       <c r="AJ249" t="n">
-        <v>6.6662482354676</v>
+        <v>7.595230225107561</v>
       </c>
       <c r="AK249" t="n">
-        <v>1.192196791741798</v>
+        <v>1.258104476714067</v>
       </c>
       <c r="AL249" t="n">
-        <v>0.5180537565853264</v>
+        <v>0.4869123229152642</v>
       </c>
       <c r="AM249" t="n">
-        <v>0.4131056741567865</v>
+        <v>0.4276456253391171</v>
       </c>
       <c r="AN249" t="n">
-        <v>0.1059642656636646</v>
+        <v>0.1052511817817716</v>
       </c>
       <c r="AO249" t="n">
-        <v>0.3190041989955765</v>
+        <v>0.3231538470983296</v>
       </c>
       <c r="AP249" t="n">
-        <v>-0.08882579216045984</v>
+        <v>-0.1036793249187548</v>
       </c>
       <c r="AQ249" t="n">
-        <v>0.5974927562358963</v>
+        <v>0.6162597420281106</v>
       </c>
       <c r="AR249" t="n">
-        <v>0.9501768854950789</v>
+        <v>0.9347007408170956</v>
       </c>
     </row>
     <row r="250">
@@ -33979,133 +33979,133 @@
         <v>248</v>
       </c>
       <c r="B250" s="2" t="n">
-        <v>44435</v>
+        <v>44439</v>
       </c>
       <c r="C250" t="n">
-        <v>129.5678465301665</v>
+        <v>133.0531027868114</v>
       </c>
       <c r="D250" t="n">
-        <v>120.4819496884999</v>
+        <v>120.506067891204</v>
       </c>
       <c r="E250" t="n">
-        <v>140.0272698891839</v>
+        <v>140.0662726877321</v>
       </c>
       <c r="F250" t="n">
-        <v>100.9366294878159</v>
+        <v>100.9458630946758</v>
       </c>
       <c r="G250" t="n">
-        <v>1.692462972940842</v>
+        <v>1.656092144044958</v>
       </c>
       <c r="H250" t="n">
-        <v>1.211626757341158</v>
+        <v>1.371819868266602</v>
       </c>
       <c r="I250" t="n">
-        <v>0.6189988615153414</v>
+        <v>0.4393872256570433</v>
       </c>
       <c r="J250" t="n">
-        <v>41.25458385598333</v>
+        <v>40.2278934218232</v>
       </c>
       <c r="K250" t="n">
-        <v>-0.02449980258014645</v>
+        <v>-0.02709805253473216</v>
       </c>
       <c r="L250" t="n">
-        <v>0.151903731878867</v>
+        <v>0.04715424912121458</v>
       </c>
       <c r="M250" t="n">
-        <v>2.235308499131088</v>
+        <v>2.230934118379613</v>
       </c>
       <c r="N250" t="n">
-        <v>0.2328548727095124</v>
+        <v>0.2001730064465059</v>
       </c>
       <c r="O250" t="n">
-        <v>0.3494542295647926</v>
+        <v>0.3404067550974208</v>
       </c>
       <c r="P250" t="n">
-        <v>0.5058267453423805</v>
+        <v>0.5062660598542961</v>
       </c>
       <c r="Q250" t="n">
-        <v>1.675105117059557</v>
+        <v>1.53029880487951</v>
       </c>
       <c r="R250" t="n">
-        <v>8.375732257283685</v>
+        <v>8.477802113131741</v>
       </c>
       <c r="S250" t="n">
-        <v>0.05464312256593695</v>
+        <v>0.05216367895596714</v>
       </c>
       <c r="T250" t="n">
-        <v>0.9215473529081946</v>
+        <v>0.8965648798000071</v>
       </c>
       <c r="U250" t="n">
-        <v>3.253670108371765</v>
+        <v>3.219148409485037</v>
       </c>
       <c r="V250" t="n">
-        <v>3.06219040050747</v>
+        <v>3.153273472799731</v>
       </c>
       <c r="W250" t="n">
-        <v>0.25910760458841</v>
+        <v>0.236309369170044</v>
       </c>
       <c r="X250" t="n">
-        <v>4.243376677967314</v>
+        <v>4.151931163779998</v>
       </c>
       <c r="Y250" t="n">
-        <v>36.90433040360666</v>
+        <v>41.28810162330976</v>
       </c>
       <c r="Z250" t="n">
-        <v>0.2576648478512659</v>
+        <v>0.2345602517973264</v>
       </c>
       <c r="AA250" t="n">
-        <v>3.122880819856828</v>
+        <v>2.953222314854359</v>
       </c>
       <c r="AB250" t="n">
-        <v>1.290585528475623</v>
+        <v>1.35212179584781</v>
       </c>
       <c r="AC250" t="n">
-        <v>1.377735797937863</v>
+        <v>1.38082028106722</v>
       </c>
       <c r="AD250" t="n">
-        <v>0.6439808095256441</v>
+        <v>0.7006883311564949</v>
       </c>
       <c r="AE250" t="n">
-        <v>0.235102479038666</v>
+        <v>0.2429424546667041</v>
       </c>
       <c r="AF250" t="n">
-        <v>1.070230513870548</v>
+        <v>1.53972121791823</v>
       </c>
       <c r="AG250" t="n">
-        <v>3.311720296005925</v>
+        <v>3.307181027673144</v>
       </c>
       <c r="AH250" t="n">
-        <v>0.06541260352650388</v>
+        <v>0.0642201862718153</v>
       </c>
       <c r="AI250" t="n">
-        <v>0.0631760411871676</v>
+        <v>0.06487610919793697</v>
       </c>
       <c r="AJ250" t="n">
-        <v>7.083136898258411</v>
+        <v>7.212784886897905</v>
       </c>
       <c r="AK250" t="n">
-        <v>1.255175246375049</v>
+        <v>1.232717812957244</v>
       </c>
       <c r="AL250" t="n">
-        <v>0.5122329279327325</v>
+        <v>0.4681401502990308</v>
       </c>
       <c r="AM250" t="n">
-        <v>0.4190927128473591</v>
+        <v>0.4380516689333572</v>
       </c>
       <c r="AN250" t="n">
-        <v>0.1040389391727419</v>
+        <v>0.1058231136044946</v>
       </c>
       <c r="AO250" t="n">
-        <v>0.3267847891882385</v>
+        <v>0.3190041989955765</v>
       </c>
       <c r="AP250" t="n">
-        <v>-0.09010501158083944</v>
+        <v>-0.1047092520680748</v>
       </c>
       <c r="AQ250" t="n">
-        <v>0.6063677839366468</v>
+        <v>0.5331524882149147</v>
       </c>
       <c r="AR250" t="n">
-        <v>0.9344087380740417</v>
+        <v>1.009161437058023</v>
       </c>
     </row>
   </sheetData>
